--- a/Kaas.xlsx
+++ b/Kaas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\AdminManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkar/Desktop/Kaas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8303CF-5B6E-40DB-B9D0-B627E28B43E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2CE9D-2967-0349-9AC2-2271C33E4E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">accounts!$A$1:$I$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">recurring!$A$1:$L$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">recurring!$A$1:$M$58</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="184">
   <si>
     <t>Office rent</t>
   </si>
@@ -404,9 +404,6 @@
     <t>office</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -576,6 +573,24 @@
   </si>
   <si>
     <t>Sindhu</t>
+  </si>
+  <si>
+    <t>trans_acc</t>
+  </si>
+  <si>
+    <t>src_account</t>
+  </si>
+  <si>
+    <t>src_account_val</t>
+  </si>
+  <si>
+    <t>src_acc</t>
+  </si>
+  <si>
+    <t>phonepe</t>
+  </si>
+  <si>
+    <t>paytm</t>
   </si>
 </sst>
 </file>
@@ -1579,49 +1594,49 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1632,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>42</v>
@@ -1650,7 +1665,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1679,7 +1694,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1708,7 +1723,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1748,7 +1763,7 @@
         <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>42</v>
@@ -1766,7 +1781,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>48</v>
@@ -1795,7 +1810,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>50</v>
@@ -1824,7 +1839,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>50</v>
@@ -1853,7 +1868,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>41</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>50</v>
@@ -1882,7 +1897,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1893,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>50</v>
@@ -1911,7 +1926,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -1940,7 +1955,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>50</v>
@@ -1969,7 +1984,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1980,7 +1995,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>56</v>
@@ -1998,7 +2013,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2009,7 +2024,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>59</v>
@@ -2027,7 +2042,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>59</v>
@@ -2056,7 +2071,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2067,7 +2082,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>59</v>
@@ -2085,7 +2100,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>59</v>
@@ -2114,7 +2129,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2125,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>59</v>
@@ -2143,7 +2158,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2154,7 +2169,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>50</v>
@@ -2172,7 +2187,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2201,7 +2216,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2212,7 +2227,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>42</v>
@@ -2230,7 +2245,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2241,7 +2256,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>67</v>
@@ -2259,7 +2274,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2270,7 +2285,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>69</v>
@@ -2288,7 +2303,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2299,7 +2314,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>69</v>
@@ -2317,7 +2332,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2328,7 +2343,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>69</v>
@@ -2346,7 +2361,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2357,7 +2372,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>81</v>
@@ -2375,7 +2390,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2386,7 +2401,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>81</v>
@@ -2404,7 +2419,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>81</v>
@@ -2433,7 +2448,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2444,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>81</v>
@@ -2462,7 +2477,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>81</v>
@@ -2491,7 +2506,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>93</v>
@@ -2520,7 +2535,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2531,7 +2546,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>93</v>
@@ -2549,7 +2564,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2560,7 +2575,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>93</v>
@@ -2578,7 +2593,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2589,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>93</v>
@@ -2607,7 +2622,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2618,7 +2633,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>93</v>
@@ -2636,18 +2651,18 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>81</v>
@@ -2687,67 +2702,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC26C402-4624-4DB5-8582-FB6EEAB86909}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2767,25 +2786,28 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="6">
         <v>45286</v>
       </c>
-      <c r="J2" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2805,25 +2827,28 @@
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="6">
         <v>45286</v>
       </c>
-      <c r="J3" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2843,25 +2868,28 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="6">
         <v>45286</v>
       </c>
-      <c r="J4" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2881,25 +2909,28 @@
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="6">
         <v>45286</v>
       </c>
-      <c r="J5" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2919,25 +2950,28 @@
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="6">
         <v>45286</v>
       </c>
-      <c r="J6" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2957,25 +2991,28 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="6">
         <v>45710</v>
       </c>
-      <c r="J7" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2995,25 +3032,28 @@
         <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6">
         <v>45711</v>
       </c>
-      <c r="J8" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3033,25 +3073,28 @@
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6">
         <v>45315</v>
       </c>
-      <c r="J9" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3071,25 +3114,28 @@
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6">
         <v>45330</v>
       </c>
-      <c r="J10" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3109,25 +3155,28 @@
         <v>12</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6">
         <v>45339</v>
       </c>
-      <c r="J11" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3147,25 +3196,28 @@
         <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="6">
         <v>45383</v>
       </c>
-      <c r="J12" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3185,25 +3237,28 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="6">
         <v>45350</v>
       </c>
-      <c r="J13" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3223,25 +3278,28 @@
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="6">
         <v>45135</v>
       </c>
-      <c r="J14" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3261,25 +3319,28 @@
         <v>12</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="6">
         <v>45135</v>
       </c>
-      <c r="J15" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3299,25 +3360,28 @@
         <v>12</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6">
         <v>45156</v>
       </c>
-      <c r="J16" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3337,25 +3401,28 @@
         <v>12</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="6">
         <v>45156</v>
       </c>
-      <c r="J17" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3375,25 +3442,28 @@
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="6">
         <v>45413</v>
       </c>
-      <c r="J18" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3413,25 +3483,28 @@
         <v>3</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="6">
         <v>45121</v>
       </c>
-      <c r="J19" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3451,25 +3524,28 @@
         <v>3</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="6">
         <v>45146</v>
       </c>
-      <c r="J20" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K20" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3489,25 +3565,28 @@
         <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="6">
         <v>45139</v>
       </c>
-      <c r="J21" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K21" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3527,25 +3606,28 @@
         <v>3</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="6">
         <v>45122</v>
       </c>
-      <c r="J22" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3565,25 +3647,28 @@
         <v>3</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="6">
         <v>45122</v>
       </c>
-      <c r="J23" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K23" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3603,25 +3688,28 @@
         <v>3</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="6">
         <v>45122</v>
       </c>
-      <c r="J24" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K24" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3641,25 +3729,28 @@
         <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="6">
         <v>45122</v>
       </c>
-      <c r="J25" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K25" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3679,25 +3770,28 @@
         <v>3</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="6">
         <v>45122</v>
       </c>
-      <c r="J26" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3717,25 +3811,28 @@
         <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="6">
         <v>45122</v>
       </c>
-      <c r="J27" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K27" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3755,25 +3852,28 @@
         <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="6">
         <v>45148</v>
       </c>
-      <c r="J28" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K28" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3793,25 +3893,28 @@
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="6">
         <v>45148</v>
       </c>
-      <c r="J29" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K29" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3831,25 +3934,28 @@
         <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="6">
         <v>45148</v>
       </c>
-      <c r="J30" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K30" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3869,25 +3975,28 @@
         <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="6">
         <v>45229</v>
       </c>
-      <c r="J31" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K31" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3907,25 +4016,28 @@
         <v>3</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="I32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="6">
         <v>45121</v>
       </c>
-      <c r="J32" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K32" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3945,25 +4057,28 @@
         <v>3</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" s="6">
+      <c r="I33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="6">
         <v>45121</v>
       </c>
-      <c r="J33" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K33" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3983,25 +4098,28 @@
         <v>3</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="6">
         <v>45121</v>
       </c>
-      <c r="J34" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K34" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4021,25 +4139,28 @@
         <v>3</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="6">
+      <c r="I35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="6">
         <v>45135</v>
       </c>
-      <c r="J35" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K35" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4059,25 +4180,28 @@
         <v>3</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="6">
+      <c r="I36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="6">
         <v>45135</v>
       </c>
-      <c r="J36" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K36" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4097,25 +4221,28 @@
         <v>3</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="6">
+      <c r="I37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="6">
         <v>45143</v>
       </c>
-      <c r="J37" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K37" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4135,25 +4262,28 @@
         <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="6">
+      <c r="I38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="6">
         <v>45143</v>
       </c>
-      <c r="J38" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4173,25 +4303,28 @@
         <v>12</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="6">
+      <c r="I39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="6">
         <v>45141</v>
       </c>
-      <c r="J39" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4211,25 +4344,28 @@
         <v>3</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J40" s="6">
         <v>45139</v>
       </c>
-      <c r="J40" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4249,25 +4385,28 @@
         <v>3</v>
       </c>
       <c r="G41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="6">
         <v>45139</v>
       </c>
-      <c r="J41" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K41" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4287,25 +4426,28 @@
         <v>3</v>
       </c>
       <c r="G42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="I42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="6">
         <v>45136</v>
       </c>
-      <c r="J42" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K42" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4325,25 +4467,28 @@
         <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" s="6">
+      <c r="I43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J43" s="6">
         <v>45120</v>
       </c>
-      <c r="J43" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K43" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4363,25 +4508,28 @@
         <v>3</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="I44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J44" s="6">
         <v>45139</v>
       </c>
-      <c r="J44" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K44" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4401,25 +4549,28 @@
         <v>3</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I45" s="6">
+      <c r="I45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J45" s="6">
         <v>45120</v>
       </c>
-      <c r="J45" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K45" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4439,25 +4590,28 @@
         <v>3</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="I46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J46" s="6">
         <v>45143</v>
       </c>
-      <c r="J46" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K46" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4477,25 +4631,28 @@
         <v>3</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I47" s="6">
+      <c r="I47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47" s="6">
         <v>45148</v>
       </c>
-      <c r="J47" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K47" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4515,25 +4672,28 @@
         <v>3</v>
       </c>
       <c r="G48" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="I48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="6">
         <v>45143</v>
       </c>
-      <c r="J48" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K48" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4553,25 +4713,28 @@
         <v>3</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" s="6">
+      <c r="I49" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" s="6">
         <v>45140</v>
       </c>
-      <c r="J49" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K49" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4591,25 +4754,28 @@
         <v>3</v>
       </c>
       <c r="G50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I50" s="6">
+      <c r="I50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J50" s="6">
         <v>45140</v>
       </c>
-      <c r="J50" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K50" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4629,25 +4795,28 @@
         <v>3</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I51" s="6">
+      <c r="I51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51" s="6">
         <v>45128</v>
       </c>
-      <c r="J51" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K51" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4667,25 +4836,28 @@
         <v>3</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I52" s="6">
+      <c r="I52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="6">
         <v>45128</v>
       </c>
-      <c r="J52" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K52" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4705,25 +4877,28 @@
         <v>3</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="6">
+      <c r="I53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" s="6">
         <v>45130</v>
       </c>
-      <c r="J53" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K53" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4743,25 +4918,28 @@
         <v>3</v>
       </c>
       <c r="G54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I54" s="6">
+      <c r="I54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="6">
         <v>45142</v>
       </c>
-      <c r="J54" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K54" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4781,25 +4959,28 @@
         <v>3</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I55" s="6">
+      <c r="I55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J55" s="6">
         <v>45146</v>
       </c>
-      <c r="J55" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K55" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4819,25 +5000,28 @@
         <v>3</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I56" s="6">
+      <c r="I56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="6">
         <v>45139</v>
       </c>
-      <c r="J56" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K56" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4857,25 +5041,28 @@
         <v>3</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="6">
+      <c r="I57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J57" s="6">
         <v>45143</v>
       </c>
-      <c r="J57" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K57" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4895,26 +5082,29 @@
         <v>3</v>
       </c>
       <c r="G58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="6">
         <v>45143</v>
       </c>
-      <c r="J58" s="6" t="b">
-        <v>0</v>
-      </c>
       <c r="K58" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L58" xr:uid="{DC26C402-4624-4DB5-8582-FB6EEAB86909}"/>
+  <autoFilter ref="A1:M58" xr:uid="{DC26C402-4624-4DB5-8582-FB6EEAB86909}"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C2:C12 C18">
     <cfRule type="colorScale" priority="12">
@@ -4968,7 +5158,7 @@
       <formula>NOT(ISERROR(SEARCH("monthly",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F58">
+  <conditionalFormatting sqref="F2:G58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",F2)))</formula>
     </cfRule>
@@ -4976,7 +5166,7 @@
       <formula>NOT(ISERROR(SEARCH("Office",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F18:G18">
     <cfRule type="containsText" dxfId="1" priority="43" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",F18)))</formula>
     </cfRule>
@@ -5026,33 +5216,44 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03802AB-87A9-4557-8624-874B4090ACAF}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
         <v>174</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>45116.693449074075</v>
       </c>
@@ -5066,7 +5267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>45117</v>
       </c>
@@ -5080,7 +5281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>45118</v>
       </c>
@@ -5094,7 +5295,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>45119</v>
       </c>
@@ -5108,7 +5309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>45120</v>
       </c>
@@ -5122,7 +5323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>45121</v>
       </c>
@@ -5136,7 +5337,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>45122</v>
       </c>
@@ -5150,7 +5351,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>45123</v>
       </c>
@@ -5164,7 +5365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>45124</v>
       </c>
@@ -5178,7 +5379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>45125</v>
       </c>
@@ -5192,7 +5393,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>45126</v>
       </c>
@@ -5206,7 +5407,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>45127</v>
       </c>
@@ -5220,7 +5421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45128</v>
       </c>
@@ -5234,7 +5435,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>45129</v>
       </c>
@@ -5248,7 +5449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>45130</v>
       </c>
@@ -5262,7 +5463,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>45131</v>
       </c>
@@ -5276,7 +5477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>45132</v>
       </c>
@@ -5290,7 +5491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>45133</v>
       </c>
@@ -5304,7 +5505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>45134</v>
       </c>
@@ -5318,7 +5519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>45135</v>
       </c>
@@ -5332,7 +5533,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>45136</v>
       </c>

--- a/Kaas.xlsx
+++ b/Kaas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkar/Desktop/Kaas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Kaas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2CE9D-2967-0349-9AC2-2271C33E4E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E0042-5ECC-4D6F-A2F6-6DDA108B3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="184">
   <si>
     <t>Office rent</t>
   </si>
@@ -1186,7 +1186,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1590,24 +1604,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>130</v>
       </c>
@@ -1636,7 +1650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1723,7 +1737,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1752,7 +1766,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1781,7 +1795,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1810,7 +1824,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1839,7 +1853,7 @@
         <v>179000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1868,7 +1882,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1926,7 +1940,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1955,7 +1969,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2013,7 +2027,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2042,7 +2056,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2071,7 +2085,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2100,7 +2114,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2129,7 +2143,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2158,7 +2172,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2216,7 +2230,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2245,7 +2259,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2274,7 +2288,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2303,7 +2317,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2332,7 +2346,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2361,7 +2375,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2390,7 +2404,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2419,7 +2433,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2448,7 +2462,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2477,7 +2491,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2506,7 +2520,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2535,7 +2549,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2564,7 +2578,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2593,7 +2607,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2651,7 +2665,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2704,28 +2718,28 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
@@ -2766,7 +2780,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2807,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2848,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2889,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2930,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2971,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3012,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3053,7 +3067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3094,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3176,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3217,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3381,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3422,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3463,7 +3477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3504,7 +3518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3545,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3586,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3627,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3668,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3709,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3750,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3832,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3873,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3914,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3955,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3996,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4037,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4078,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4119,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4160,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4201,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4283,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4324,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4365,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4406,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4447,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4488,7 +4502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4529,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4570,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4611,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4652,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4693,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4734,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4775,7 +4789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4816,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4857,7 +4871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4939,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4980,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -5021,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5062,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -5117,19 +5131,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C58">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="Sals">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Sals">
       <formula>NOT(ISERROR(SEARCH("Sals",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="Servs">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Servs">
       <formula>NOT(ISERROR(SEARCH("Servs",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Subs">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Subs">
       <formula>NOT(ISERROR(SEARCH("Subs",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Bills">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Bills">
       <formula>NOT(ISERROR(SEARCH("Bills",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="Sals">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Sals">
       <formula>NOT(ISERROR(SEARCH("Sals",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5154,23 +5168,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E58">
-    <cfRule type="containsText" dxfId="5" priority="90" operator="containsText" text="monthly">
+    <cfRule type="containsText" dxfId="7" priority="90" operator="containsText" text="monthly">
       <formula>NOT(ISERROR(SEARCH("monthly",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:G58">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Office">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Office">
       <formula>NOT(ISERROR(SEARCH("Office",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18">
-    <cfRule type="containsText" dxfId="1" priority="43" operator="containsText" text="Home">
+    <cfRule type="containsText" dxfId="3" priority="43" operator="containsText" text="Home">
       <formula>NOT(ISERROR(SEARCH("Home",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="44" operator="containsText" text="Office">
+    <cfRule type="containsText" dxfId="2" priority="44" operator="containsText" text="Office">
       <formula>NOT(ISERROR(SEARCH("Office",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5219,18 +5233,18 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -5253,7 +5267,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45116.693449074075</v>
       </c>
@@ -5266,8 +5280,17 @@
       <c r="D2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45117</v>
       </c>
@@ -5280,8 +5303,17 @@
       <c r="D3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45118</v>
       </c>
@@ -5294,8 +5326,17 @@
       <c r="D4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45119</v>
       </c>
@@ -5308,8 +5349,17 @@
       <c r="D5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45120</v>
       </c>
@@ -5322,8 +5372,17 @@
       <c r="D6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45121</v>
       </c>
@@ -5336,8 +5395,17 @@
       <c r="D7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45122</v>
       </c>
@@ -5350,8 +5418,17 @@
       <c r="D8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45123</v>
       </c>
@@ -5364,8 +5441,17 @@
       <c r="D9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45124</v>
       </c>
@@ -5378,8 +5464,17 @@
       <c r="D10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45125</v>
       </c>
@@ -5392,8 +5487,17 @@
       <c r="D11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45126</v>
       </c>
@@ -5406,8 +5510,17 @@
       <c r="D12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45127</v>
       </c>
@@ -5420,8 +5533,17 @@
       <c r="D13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45128</v>
       </c>
@@ -5434,8 +5556,17 @@
       <c r="D14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45129</v>
       </c>
@@ -5448,8 +5579,17 @@
       <c r="D15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45130</v>
       </c>
@@ -5462,8 +5602,17 @@
       <c r="D16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>45131</v>
       </c>
@@ -5476,8 +5625,17 @@
       <c r="D17" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45132</v>
       </c>
@@ -5490,8 +5648,17 @@
       <c r="D18" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>45133</v>
       </c>
@@ -5504,8 +5671,17 @@
       <c r="D19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45134</v>
       </c>
@@ -5518,8 +5694,17 @@
       <c r="D20" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>45135</v>
       </c>
@@ -5532,8 +5717,17 @@
       <c r="D21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>45136</v>
       </c>
@@ -5546,8 +5740,26 @@
       <c r="D22" t="s">
         <v>120</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2953</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E22">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Home">
+      <formula>NOT(ISERROR(SEARCH("Home",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Office">
+      <formula>NOT(ISERROR(SEARCH("Office",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
